--- a/biology/Microbiologie/Haemophilus/Haemophilus.xlsx
+++ b/biology/Microbiologie/Haemophilus/Haemophilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Haemophilus  est un petit genre de bactéries, à gram négatif, de la famille des Pasteurellaceae. Les seize espèces de ce genre sont des bacilles immobiles, qui agissent en tant que parasites des muqueuses des humains et des animaux et peuvent provoquer des maladies. Le nom du groupe vient de son affinité particulière pour les milieux au sang ou à l'hémoglobine.
 </t>
@@ -511,9 +523,11 @@
           <t>Espèces importantes d'un point de vue médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Haemophilus influenzae : cette espèce est, parmi les différentes espèces du genre Haemophilus, l'espèce pathogène la plus importante[1]. Elle peut à la fois faire partie de la flore commensale et être responsable d'infections respiratoires simples mais aussi capable de provoquer une maladie invasive entraînant des risques de décès[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Haemophilus influenzae : cette espèce est, parmi les différentes espèces du genre Haemophilus, l'espèce pathogène la plus importante. Elle peut à la fois faire partie de la flore commensale et être responsable d'infections respiratoires simples mais aussi capable de provoquer une maladie invasive entraînant des risques de décès.
 Haemophilus ducreyi
 Haemophilus aegyptius
 Haemophilus parainfluenzae
@@ -545,13 +559,85 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Haemophilus Winslow et al. 1917[2].
-Étymologie
-L'étymologie de ce gere est la suivante : Hae.mo.phi.lus. Gr. neut. n. haîma, sang (translittération latine haema); N.L. masculin adjectif suffixe -philus, ami, aimant; du Grec masculin adjectif philos, sur; N.L. masc. n. Haemophilus, aimant le sang[2].
-Liste des espèces valides
-Selon la base taxonomique LPSN  (12 septembre 2023)[2], qui actualise les validations du Comité international de Systématique des procaryotes, le genre Haemophilus comprend 14 espèces publiées de manière valide et avec un nom correct.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Haemophilus Winslow et al. 1917.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Haemophilus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haemophilus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de ce gere est la suivante : Hae.mo.phi.lus. Gr. neut. n. haîma, sang (translittération latine haema); N.L. masculin adjectif suffixe -philus, ami, aimant; du Grec masculin adjectif philos, sur; N.L. masc. n. Haemophilus, aimant le sang.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Haemophilus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haemophilus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces valides</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la base taxonomique LPSN  (12 septembre 2023), qui actualise les validations du Comité international de Systématique des procaryotes, le genre Haemophilus comprend 14 espèces publiées de manière valide et avec un nom correct.
 Haemophilus aegyptius corrig. (Trevisan 1889) Pittman et Davis 1950
 Haemophilus ducreyi (Neveu-Lemaire 1921) Bergey et al. 1923
 Haemophilus felis Inzana et al. 1999
@@ -565,13 +651,81 @@
 Haemophilus piscium corrig. Snieszko et al. 1950
 Haemophilus pittmaniae Nørskov-Lauritsen et al. 2005
 Haemophilus seminalis Zheng et al. 2020
-Haemophilus sputorum Nørskov-Lauritsen et al. 2012
-Espèces non valides
-Selon la base taxonomique LPSN  (12 septembre 2023)[2], des espèces d'Haemophilus ont été publiées de manière non valide. Leur nom est donc non valide mais peut être le nom préféré en attente d'une publication valide.
+Haemophilus sputorum Nørskov-Lauritsen et al. 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Haemophilus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haemophilus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces non valides</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon la base taxonomique LPSN  (12 septembre 2023), des espèces d'Haemophilus ont été publiées de manière non valide. Leur nom est donc non valide mais peut être le nom préféré en attente d'une publication valide.
 "Haemophilus quentini" Mak et al. 2005
-"Haemophilus somnifer" Miles et al. 1972
-Espèces synonymisées
-Selon la LPSN  (12 septembre 2023)[2], plusieurs espèces qui ont fait partie du genre Haemophilus se retrouvent désormais attribuées à un autre genre ou ont été synonymisées.
+"Haemophilus somnifer" Miles et al. 1972</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Haemophilus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haemophilus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Espèces synonymisées</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la LPSN  (12 septembre 2023), plusieurs espèces qui ont fait partie du genre Haemophilus se retrouvent désormais attribuées à un autre genre ou ont été synonymisées.
 Haemophilus actinomycetemcomitans (Klinger 1912) Potts et al. 1985 renommée Aggregatibacter actinomycetemcomitans (Klinger 1912) Nørskov-Lauritsen et Kilian 2006
 Haemophilus aphrophilus Khairat 1940 renommée Aggregatibacter aphrophilus (Khairat 1940) Nørskov-Lauritsen et Kilian 2006
 Haemophilus avium Hinz et Kunjara 1977 renommée Avibacterium avium (Hinz et Kunjara 1977) Blackall et al. 2005
@@ -584,7 +738,7 @@
 Haemophilus pleuropneumoniae corrig. Shope 1964 renommée Actinobacillus pleuropneumoniae (Shope 1964) Pohl et al. 1983
 Haemophilus segnis Kilian 1977 renommée Aggregatibacter segnis (Kilian 1977) Nørskov-Lauritsen et Kilian 2006
 Haemophilus vaginalis Gardner et Dukes 1955 renommée Gardnerella vaginalis (Gardner et Dukes 1955) Greenwood et Pickett 1980
-Une autre espèce nommée ""Haemophilus canis"" mais jamais décrite formellement est considérée comme synonyme de l'espèce Haemophilus haemoglobinophilus[3].
+Une autre espèce nommée ""Haemophilus canis"" mais jamais décrite formellement est considérée comme synonyme de l'espèce Haemophilus haemoglobinophilus.
 </t>
         </is>
       </c>
